--- a/testData/SignIn  Credentials.xlsx
+++ b/testData/SignIn  Credentials.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>username</t>
   </si>
@@ -391,12 +391,8 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
